--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-non-food-non-medication-allergen-codes-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-non-food-non-medication-allergen-codes-cs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JFAGY Non Food None Medication Allergen Codes CodeSystem</t>
+    <t>JFAGY Non Food None Medication Allergen Codes</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T00:30:07+00:00</t>
+    <t>2022-08-03T13:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-non-food-non-medication-allergen-codes-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-non-food-non-medication-allergen-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T13:55:30+00:00</t>
+    <t>2022-08-06T07:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-non-food-non-medication-allergen-codes-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-non-food-non-medication-allergen-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T07:57:57+00:00</t>
+    <t>2022-08-06T08:15:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-non-food-non-medication-allergen-codes-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-non-food-non-medication-allergen-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T08:15:13+00:00</t>
+    <t>2022-08-08T12:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-non-food-non-medication-allergen-codes-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-non-food-non-medication-allergen-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:51:35+00:00</t>
+    <t>2022-08-15T09:08:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-non-food-non-medication-allergen-codes-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-jfagy-non-food-non-medication-allergen-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T09:08:26+00:00</t>
+    <t>2022-08-17T12:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
